--- a/Escopo/Modelos/Médicos.xlsx
+++ b/Escopo/Modelos/Médicos.xlsx
@@ -1,32 +1,76 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ariel\Code-Repositories\GitHub\senai-2s-sprint1-bd-final-project\Escopo\Modelos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280C4FAA-E1CE-49D5-9D27-260F1DF83337}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Médicos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ID_USUARIO</t>
+  </si>
+  <si>
+    <t>Especialidade</t>
+  </si>
+  <si>
+    <t>Crm</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4A4A4A"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,8 +93,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -111,7 +167,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -146,7 +202,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -321,22 +377,82 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3">
+        <v>54356</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3">
+        <v>53452</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3">
+        <v>65463</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>